--- a/results/gurobi_cplex_comparison/seed_30_k_25.xlsx
+++ b/results/gurobi_cplex_comparison/seed_30_k_25.xlsx
@@ -429,10 +429,10 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.006</v>
+        <v>0.6830000000000001</v>
       </c>
       <c r="F2">
-        <v>0.021</v>
+        <v>0.257</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -449,10 +449,10 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.015</v>
+        <v>0.977</v>
       </c>
       <c r="F3">
-        <v>0.031</v>
+        <v>0.273</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -469,10 +469,10 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.018</v>
+        <v>1.337</v>
       </c>
       <c r="F4">
-        <v>0.044</v>
+        <v>0.359</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -489,10 +489,10 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.018</v>
+        <v>1.732</v>
       </c>
       <c r="F5">
-        <v>0.037</v>
+        <v>0.435</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -509,10 +509,10 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.019</v>
+        <v>2.209</v>
       </c>
       <c r="F6">
-        <v>0.041</v>
+        <v>0.579</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -529,10 +529,10 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.02</v>
+        <v>2.712</v>
       </c>
       <c r="F7">
-        <v>0.049</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -549,10 +549,10 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.028</v>
+        <v>3.293</v>
       </c>
       <c r="F8">
-        <v>0.059</v>
+        <v>0.742</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -569,10 +569,10 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.035</v>
+        <v>3.925</v>
       </c>
       <c r="F9">
-        <v>0.059</v>
+        <v>0.912</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -589,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.052</v>
+        <v>4.629</v>
       </c>
       <c r="F10">
-        <v>0.07000000000000001</v>
+        <v>0.996</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -609,10 +609,10 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.08599999999999999</v>
+        <v>5.412</v>
       </c>
       <c r="F11">
-        <v>71.304</v>
+        <v>101.713</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -629,10 +629,10 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.184</v>
+        <v>6.269</v>
       </c>
       <c r="F12">
-        <v>94.05800000000001</v>
+        <v>106.19</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -649,10 +649,10 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.165</v>
+        <v>7.154</v>
       </c>
       <c r="F13">
-        <v>88.497</v>
+        <v>105.069</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -669,10 +669,10 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.127</v>
+        <v>7.954</v>
       </c>
       <c r="F14">
-        <v>104.928</v>
+        <v>99.54000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.034</v>
+        <v>8.856</v>
       </c>
       <c r="F15">
-        <v>57.115</v>
+        <v>65.53700000000001</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.068</v>
+        <v>9.872999999999999</v>
       </c>
       <c r="F16">
-        <v>121.554</v>
+        <v>95.31999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -729,10 +729,10 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.127</v>
+        <v>11.11</v>
       </c>
       <c r="F17">
-        <v>56.164</v>
+        <v>73.8</v>
       </c>
     </row>
   </sheetData>
